--- a/biology/Médecine/Hémianopsie_bitemporale/Hémianopsie_bitemporale.xlsx
+++ b/biology/Médecine/Hémianopsie_bitemporale/Hémianopsie_bitemporale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mianopsie_bitemporale</t>
+          <t>Hémianopsie_bitemporale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémianopsie bitemporale est une hémianopsie dans laquelle la perte du champ visuel latéral des deux yeux se fait des côtés opposés du champ visuel.
 Elle est la présentation caractéristique d'une lésion du chiasma optique, lésant par là la décussation des faisceaux provenant des nerfs crâniens II (seuls les axones provenant de la rétine médiale décussent).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mianopsie_bitemporale</t>
+          <t>Hémianopsie_bitemporale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vision d'un patient atteint d'une hémianopsie bitemporale.
